--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1257.917155</v>
+        <v>1545.224243</v>
       </c>
       <c r="H2">
-        <v>3773.751465</v>
+        <v>4635.672729</v>
       </c>
       <c r="I2">
-        <v>0.2062158304094556</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="J2">
-        <v>0.2062158304094557</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>28107.88502184092</v>
+        <v>29688.62876991869</v>
       </c>
       <c r="R2">
-        <v>252970.9651965683</v>
+        <v>267197.6589292682</v>
       </c>
       <c r="S2">
-        <v>0.006528555652422946</v>
+        <v>0.01513908166894018</v>
       </c>
       <c r="T2">
-        <v>0.006528555652422947</v>
+        <v>0.01513908166894018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1257.917155</v>
+        <v>1545.224243</v>
       </c>
       <c r="H3">
-        <v>3773.751465</v>
+        <v>4635.672729</v>
       </c>
       <c r="I3">
-        <v>0.2062158304094556</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="J3">
-        <v>0.2062158304094557</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>116290.8315961266</v>
+        <v>142851.5475019221</v>
       </c>
       <c r="R3">
-        <v>1046617.484365139</v>
+        <v>1285663.927517299</v>
       </c>
       <c r="S3">
-        <v>0.02701061162559618</v>
+        <v>0.07284409330340419</v>
       </c>
       <c r="T3">
-        <v>0.02701061162559618</v>
+        <v>0.07284409330340419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1257.917155</v>
+        <v>1545.224243</v>
       </c>
       <c r="H4">
-        <v>3773.751465</v>
+        <v>4635.672729</v>
       </c>
       <c r="I4">
-        <v>0.2062158304094556</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="J4">
-        <v>0.2062158304094557</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>306887.2807110561</v>
+        <v>257833.0293138677</v>
       </c>
       <c r="R4">
-        <v>2761985.526399505</v>
+        <v>2320497.263824809</v>
       </c>
       <c r="S4">
-        <v>0.07128002301084022</v>
+        <v>0.1314764423100563</v>
       </c>
       <c r="T4">
-        <v>0.07128002301084024</v>
+        <v>0.1314764423100563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1257.917155</v>
+        <v>1545.224243</v>
       </c>
       <c r="H5">
-        <v>3773.751465</v>
+        <v>4635.672729</v>
       </c>
       <c r="I5">
-        <v>0.2062158304094556</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="J5">
-        <v>0.2062158304094557</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>82341.6539605388</v>
+        <v>63507.41221803889</v>
       </c>
       <c r="R5">
-        <v>741074.8856448492</v>
+        <v>571566.7099623501</v>
       </c>
       <c r="S5">
-        <v>0.01912531198901004</v>
+        <v>0.03238424743705581</v>
       </c>
       <c r="T5">
-        <v>0.01912531198901004</v>
+        <v>0.03238424743705581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1257.917155</v>
+        <v>1545.224243</v>
       </c>
       <c r="H6">
-        <v>3773.751465</v>
+        <v>4635.672729</v>
       </c>
       <c r="I6">
-        <v>0.2062158304094556</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="J6">
-        <v>0.2062158304094557</v>
+        <v>0.3401139553078116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>354208.9789582393</v>
+        <v>173102.8346548464</v>
       </c>
       <c r="R6">
-        <v>3187880.810624154</v>
+        <v>1557925.511893617</v>
       </c>
       <c r="S6">
-        <v>0.08227132813158626</v>
+        <v>0.08827009058835511</v>
       </c>
       <c r="T6">
-        <v>0.08227132813158627</v>
+        <v>0.08827009058835512</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3750.894531</v>
       </c>
       <c r="I7">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="J7">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>27937.64061682847</v>
+        <v>24022.16933678997</v>
       </c>
       <c r="R7">
-        <v>251438.7655514563</v>
+        <v>216199.5240311097</v>
       </c>
       <c r="S7">
-        <v>0.006489013364848702</v>
+        <v>0.01224959179735703</v>
       </c>
       <c r="T7">
-        <v>0.006489013364848703</v>
+        <v>0.01224959179735704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3750.894531</v>
       </c>
       <c r="I8">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="J8">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>115586.4789414141</v>
@@ -948,10 +948,10 @@
         <v>1040278.310472727</v>
       </c>
       <c r="S8">
-        <v>0.02684701320822508</v>
+        <v>0.05894085436146252</v>
       </c>
       <c r="T8">
-        <v>0.02684701320822508</v>
+        <v>0.05894085436146252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3750.894531</v>
       </c>
       <c r="I9">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="J9">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>305028.5196384978</v>
+        <v>208622.2553016963</v>
       </c>
       <c r="R9">
-        <v>2745256.67674648</v>
+        <v>1877600.297715267</v>
       </c>
       <c r="S9">
-        <v>0.07084829272955706</v>
+        <v>0.1063824599461122</v>
       </c>
       <c r="T9">
-        <v>0.07084829272955707</v>
+        <v>0.1063824599461122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3750.894531</v>
       </c>
       <c r="I10">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="J10">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>81842.92536977645</v>
+        <v>51386.19982303861</v>
       </c>
       <c r="R10">
-        <v>736586.328327988</v>
+        <v>462475.7984073475</v>
       </c>
       <c r="S10">
-        <v>0.01900947341354566</v>
+        <v>0.02620329425809287</v>
       </c>
       <c r="T10">
-        <v>0.01900947341354566</v>
+        <v>0.02620329425809288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3750.894531</v>
       </c>
       <c r="I11">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="J11">
-        <v>0.2049668182078999</v>
+        <v>0.2751988005753909</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>352063.5988691307</v>
+        <v>140063.9160192666</v>
       </c>
       <c r="R11">
-        <v>3168572.389822176</v>
+        <v>1260575.2441734</v>
       </c>
       <c r="S11">
-        <v>0.08177302549172338</v>
+        <v>0.07142260021236624</v>
       </c>
       <c r="T11">
-        <v>0.08177302549172338</v>
+        <v>0.07142260021236625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1513.642008666667</v>
+        <v>618.110189</v>
       </c>
       <c r="H12">
-        <v>4540.926026</v>
+        <v>1854.330567</v>
       </c>
       <c r="I12">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="J12">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>33822.00121424611</v>
+        <v>11875.84522004246</v>
       </c>
       <c r="R12">
-        <v>304398.010928215</v>
+        <v>106882.6069803821</v>
       </c>
       <c r="S12">
-        <v>0.007855760653352079</v>
+        <v>0.00605583343263341</v>
       </c>
       <c r="T12">
-        <v>0.007855760653352081</v>
+        <v>0.00605583343263341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1513.642008666667</v>
+        <v>618.110189</v>
       </c>
       <c r="H13">
-        <v>4540.926026</v>
+        <v>1854.330567</v>
       </c>
       <c r="I13">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="J13">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>139931.8605577631</v>
+        <v>57142.51340888103</v>
       </c>
       <c r="R13">
-        <v>1259386.745019868</v>
+        <v>514282.6206799292</v>
       </c>
       <c r="S13">
-        <v>0.03250166060123619</v>
+        <v>0.02913860333428693</v>
       </c>
       <c r="T13">
-        <v>0.03250166060123619</v>
+        <v>0.02913860333428693</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1513.642008666667</v>
+        <v>618.110189</v>
       </c>
       <c r="H14">
-        <v>4540.926026</v>
+        <v>1854.330567</v>
       </c>
       <c r="I14">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="J14">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>369275.0974604</v>
+        <v>103136.6309463456</v>
       </c>
       <c r="R14">
-        <v>3323475.8771436</v>
+        <v>928229.6785171108</v>
       </c>
       <c r="S14">
-        <v>0.0857707018137728</v>
+        <v>0.05259232048258543</v>
       </c>
       <c r="T14">
-        <v>0.08577070181377282</v>
+        <v>0.05259232048258545</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1513.642008666667</v>
+        <v>618.110189</v>
       </c>
       <c r="H15">
-        <v>4540.926026</v>
+        <v>1854.330567</v>
       </c>
       <c r="I15">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="J15">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>99081.07700285362</v>
+        <v>25403.80708290048</v>
       </c>
       <c r="R15">
-        <v>891729.6930256826</v>
+        <v>228634.2637461043</v>
       </c>
       <c r="S15">
-        <v>0.02301334037806475</v>
+        <v>0.01295412843451054</v>
       </c>
       <c r="T15">
-        <v>0.02301334037806475</v>
+        <v>0.01295412843451055</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1513.642008666667</v>
+        <v>618.110189</v>
       </c>
       <c r="H16">
-        <v>4540.926026</v>
+        <v>1854.330567</v>
       </c>
       <c r="I16">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="J16">
-        <v>0.2481379179218151</v>
+        <v>0.1360500925022369</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>426216.9319076648</v>
+        <v>69243.42944375022</v>
       </c>
       <c r="R16">
-        <v>3835952.387168983</v>
+        <v>623190.864993752</v>
       </c>
       <c r="S16">
-        <v>0.09899645447538928</v>
+        <v>0.03530920681822056</v>
       </c>
       <c r="T16">
-        <v>0.09899645447538928</v>
+        <v>0.03530920681822056</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>752.6544696666666</v>
+        <v>528.755229</v>
       </c>
       <c r="H17">
-        <v>2257.963409</v>
+        <v>1586.265687</v>
       </c>
       <c r="I17">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="J17">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>16817.9002969121</v>
+        <v>10159.05476182355</v>
       </c>
       <c r="R17">
-        <v>151361.1026722089</v>
+        <v>91431.49285641198</v>
       </c>
       <c r="S17">
-        <v>0.003906256125637869</v>
+        <v>0.005180392833579281</v>
       </c>
       <c r="T17">
-        <v>0.00390625612563787</v>
+        <v>0.005180392833579282</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>752.6544696666666</v>
+        <v>528.755229</v>
       </c>
       <c r="H18">
-        <v>2257.963409</v>
+        <v>1586.265687</v>
       </c>
       <c r="I18">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="J18">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>69580.74610412504</v>
+        <v>48881.90374604626</v>
       </c>
       <c r="R18">
-        <v>626226.7149371253</v>
+        <v>439937.1337144163</v>
       </c>
       <c r="S18">
-        <v>0.01616136443296649</v>
+        <v>0.02492628200109002</v>
       </c>
       <c r="T18">
-        <v>0.01616136443296649</v>
+        <v>0.02492628200109002</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>752.6544696666666</v>
+        <v>528.755229</v>
       </c>
       <c r="H19">
-        <v>2257.963409</v>
+        <v>1586.265687</v>
       </c>
       <c r="I19">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="J19">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>183621.0616835298</v>
+        <v>88227.0408817407</v>
       </c>
       <c r="R19">
-        <v>1652589.555151769</v>
+        <v>794043.3679356663</v>
       </c>
       <c r="S19">
-        <v>0.04264925373169885</v>
+        <v>0.04498949371049901</v>
       </c>
       <c r="T19">
-        <v>0.04264925373169885</v>
+        <v>0.04498949371049902</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>752.6544696666666</v>
+        <v>528.755229</v>
       </c>
       <c r="H20">
-        <v>2257.963409</v>
+        <v>1586.265687</v>
       </c>
       <c r="I20">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="J20">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>49267.80245170082</v>
+        <v>21731.39364248672</v>
       </c>
       <c r="R20">
-        <v>443410.2220653074</v>
+        <v>195582.5427823805</v>
       </c>
       <c r="S20">
-        <v>0.01144332239613816</v>
+        <v>0.01108145969566768</v>
       </c>
       <c r="T20">
-        <v>0.01144332239613816</v>
+        <v>0.01108145969566769</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>752.6544696666666</v>
+        <v>528.755229</v>
       </c>
       <c r="H21">
-        <v>2257.963409</v>
+        <v>1586.265687</v>
       </c>
       <c r="I21">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="J21">
-        <v>0.123385920811057</v>
+        <v>0.1163824817915944</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>211935.2376659376</v>
+        <v>59233.49273939163</v>
       </c>
       <c r="R21">
-        <v>1907417.138993439</v>
+        <v>533101.4346545248</v>
       </c>
       <c r="S21">
-        <v>0.04922572412461565</v>
+        <v>0.03020485355075836</v>
       </c>
       <c r="T21">
-        <v>0.04922572412461565</v>
+        <v>0.03020485355075837</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1325.491048333333</v>
+        <v>600.866618</v>
       </c>
       <c r="H22">
-        <v>3976.473144999999</v>
+        <v>1802.599854</v>
       </c>
       <c r="I22">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="J22">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>29617.80895979014</v>
+        <v>11544.54186364881</v>
       </c>
       <c r="R22">
-        <v>266560.2806381113</v>
+        <v>103900.8767728393</v>
       </c>
       <c r="S22">
-        <v>0.006879262311859161</v>
+        <v>0.005886892367402422</v>
       </c>
       <c r="T22">
-        <v>0.006879262311859162</v>
+        <v>0.005886892367402421</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1325.491048333333</v>
+        <v>600.866618</v>
       </c>
       <c r="H23">
-        <v>3976.473144999999</v>
+        <v>1802.599854</v>
       </c>
       <c r="I23">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="J23">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>122537.8441427686</v>
+        <v>55548.39474748409</v>
       </c>
       <c r="R23">
-        <v>1102840.597284918</v>
+        <v>499935.5527273567</v>
       </c>
       <c r="S23">
-        <v>0.02846159127207069</v>
+        <v>0.02832571659600407</v>
       </c>
       <c r="T23">
-        <v>0.02846159127207069</v>
+        <v>0.02832571659600407</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1325.491048333333</v>
+        <v>600.866618</v>
       </c>
       <c r="H24">
-        <v>3976.473144999999</v>
+        <v>1802.599854</v>
       </c>
       <c r="I24">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="J24">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>323372.9199200433</v>
+        <v>100259.4031476884</v>
       </c>
       <c r="R24">
-        <v>2910356.279280389</v>
+        <v>902334.6283291952</v>
       </c>
       <c r="S24">
-        <v>0.07510910559595851</v>
+        <v>0.05112513966525675</v>
       </c>
       <c r="T24">
-        <v>0.07510910559595853</v>
+        <v>0.05112513966525675</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1325.491048333333</v>
+        <v>600.866618</v>
       </c>
       <c r="H25">
-        <v>3976.473144999999</v>
+        <v>1802.599854</v>
       </c>
       <c r="I25">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="J25">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>86764.95490647406</v>
+        <v>24695.11086837441</v>
       </c>
       <c r="R25">
-        <v>780884.5941582666</v>
+        <v>222255.9978153697</v>
       </c>
       <c r="S25">
-        <v>0.02015270221671711</v>
+        <v>0.01259274394776557</v>
       </c>
       <c r="T25">
-        <v>0.02015270221671711</v>
+        <v>0.01259274394776557</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1325.491048333333</v>
+        <v>600.866618</v>
       </c>
       <c r="H26">
-        <v>3976.473144999999</v>
+        <v>1802.599854</v>
       </c>
       <c r="I26">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="J26">
-        <v>0.2172935126497724</v>
+        <v>0.1322546698229662</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>373236.6865196589</v>
+        <v>67311.72857043425</v>
       </c>
       <c r="R26">
-        <v>3359130.17867693</v>
+        <v>605805.5571339084</v>
       </c>
       <c r="S26">
-        <v>0.08669085125316693</v>
+        <v>0.0343241772465374</v>
       </c>
       <c r="T26">
-        <v>0.08669085125316693</v>
+        <v>0.0343241772465374</v>
       </c>
     </row>
   </sheetData>
